--- a/speechrecognition dataset details.xlsx
+++ b/speechrecognition dataset details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icthva-my.sharepoint.com/personal/bilal_malik2_hva_nl/Documents/HVA/jaar 4/Blok2/Human Machine Interface/speechrecognition Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\HMIvoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{336E112E-BC59-45D8-A4FC-853E65403B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16434D01-C912-4F7B-BF06-894BCFD8D7B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94103658-040F-485E-9345-B304F2A7FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC374DF2-581E-4002-AFBF-EAEDBFF7E7A3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FC374DF2-581E-4002-AFBF-EAEDBFF7E7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -44,42 +44,9 @@
     <t xml:space="preserve">extra </t>
   </si>
   <si>
-    <t>The sun is shining brightly in the clear blue sky</t>
-  </si>
-  <si>
-    <t>My grandmother, who immigrated from Italy, taught me the art of making homemade pasta</t>
-  </si>
-  <si>
-    <t>The intricate details of the ancient manuscript fascinated the historian</t>
-  </si>
-  <si>
-    <t>The complexity of quantum physics often leaves even experts perplexed</t>
-  </si>
-  <si>
-    <t>Amidst the chaos, he found a moment of serenity by focusing on his breath</t>
-  </si>
-  <si>
-    <t>The nice smell of fresh coffee floated around, waking me up.</t>
-  </si>
-  <si>
-    <t>Code is like humor. When you have to explain it, it’s bad</t>
-  </si>
-  <si>
-    <t>The trouble with programmers is that you can never tell what a programmer is doing until it’s too late</t>
-  </si>
-  <si>
     <t>Sentence</t>
   </si>
   <si>
-    <t>Make it work, make it right, make it fast</t>
-  </si>
-  <si>
-    <t>When you have to protect someone they become your family. Being shinobi is defined by what's in your heart, not your blood</t>
-  </si>
-  <si>
-    <t>In the kaleidoscope of life, the symbiotic confluence of camaraderie and mutual understanding serves as an ineffable elixir, fostering an indelible tapestry of interconnected souls, transcending the vicissitudes of time with an enduring luminosity.</t>
-  </si>
-  <si>
     <t>type:</t>
   </si>
   <si>
@@ -128,7 +95,19 @@
     <t>native (international student) UK</t>
   </si>
   <si>
-    <t>Despite the intricate interplay of socioeconomic factors, the inexorable march of technological advancements continues to reshape the fabric of contemporary existence, fostering both unprecedented opportunities and formidable challenges.</t>
+    <t>The geographical location of the upper region changed over time tremendously depending on the location of the economic and military power governing the low countries.</t>
+  </si>
+  <si>
+    <t>A full-scale use of nuclear weapons by two or more opposing sides would cause the complete annihilation of both the attacker and the defender.</t>
+  </si>
+  <si>
+    <t>Hazel's courage Bigwig's strength Blackberry's ingenuity and craftiness and Dandelion's and Bluebell's poetry and storytelling all have parallels in the epic poem Odyssey.</t>
+  </si>
+  <si>
+    <t>Statistical conclusion validity involves ensuring the use of adequate sampling procedures appropriate statistical tests and reliable measurement procedures.</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -171,7 +150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -187,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -486,194 +465,164 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="105.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="105.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>